--- a/test-satker.xlsx
+++ b/test-satker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmad Setiya Budi\Documents\app\backend-magang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FD9B4-9454-4E80-9FC8-D0C581B81464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672688E-264C-4A68-9564-C793EF13563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -418,7 +420,8 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/test-satker.xlsx
+++ b/test-satker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmad Setiya Budi\Documents\app\backend-magang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672688E-264C-4A68-9564-C793EF13563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFCA9D-DE60-4F26-B000-7D528D7F293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,19 +63,19 @@
     <t>di sana</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>BPS Banjarlama</t>
   </si>
   <si>
     <t>bpsbanjarlama@bps.go.id</t>
   </si>
   <si>
-    <t>00201</t>
-  </si>
-  <si>
     <t>kodeProvinsi</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>00101</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -487,13 +487,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
